--- a/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 revised on 21 Jan 25.xlsx
+++ b/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 revised on 21 Jan 25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B5F5EE-426A-4611-A8B3-AFF6C1A615A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E671B1-954A-4843-8074-FEC701E52E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1451,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A11:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -2061,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A158" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4559,7 +4559,8 @@
         <v>388000</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="39" t="s">
         <v>35</v>
@@ -4571,7 +4572,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="40"/>
       <c r="C103" s="7"/>
@@ -4581,7 +4582,7 @@
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
     </row>
-    <row r="104" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47">
         <v>1</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47">
         <v>2</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47">
         <v>3</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47">
         <v>4</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47">
         <v>5</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47">
         <v>6</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47">
         <v>7</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47">
         <v>8</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47">
         <v>9</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47">
         <v>10</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47">
         <v>11</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47">
         <v>12</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47">
         <v>13</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47">
         <v>14</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47">
         <v>15</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47">
         <v>16</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47">
         <v>17</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47">
         <v>18</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47">
         <v>19</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47">
         <v>20</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47">
         <v>21</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47">
         <v>22</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47">
         <v>23</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47">
         <v>24</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47">
         <v>25</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="47">
         <v>26</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="47">
         <v>27</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="47">
         <v>28</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="47">
         <v>29</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="47">
         <v>30</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="47">
         <v>31</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="62" t="s">
         <v>20</v>
       </c>
@@ -5467,6 +5468,7 @@
       <c r="J135" s="45"/>
       <c r="K135" s="45"/>
     </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="39" t="s">
@@ -6217,19 +6219,12 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.4" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="11" manualBreakCount="11">
-    <brk id="13" max="16383" man="1"/>
-    <brk id="27" max="16383" man="1"/>
-    <brk id="39" max="7" man="1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="27" max="7" man="1"/>
     <brk id="51" max="7" man="1"/>
-    <brk id="75" max="16383" man="1"/>
-    <brk id="86" max="7" man="1"/>
-    <brk id="99" max="16383" man="1"/>
-    <brk id="107" max="7" man="1"/>
-    <brk id="122" max="7" man="1"/>
-    <brk id="135" max="16383" man="1"/>
-    <brk id="145" max="7" man="1"/>
+    <brk id="75" max="7" man="1"/>
+    <brk id="99" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -6238,8 +6233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
